--- a/Unsuccesful.xlsx
+++ b/Unsuccesful.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,15 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>reason</t>
         </is>
@@ -448,132 +453,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AKMAL</t>
+          <t>U2020-0058</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>There are 64 data</t>
+          <t>MUHAMMAD ZIDNI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>There are 25 data</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MUHAMMAD ZIDNI</t>
+          <t>U2021-0003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>There are 25 data</t>
+          <t>ADAM HAIKAL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>There are 6 data</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADAM HAIKAL</t>
+          <t>U2021-0004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>There are 6 data</t>
+          <t>ADIB M P</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Data doesnt exist</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADIB M P</t>
+          <t>U2021-0007</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Data doesnt exist</t>
+          <t>AGUS NURYADI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>There are 25 data</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AGUS NURYADI</t>
+          <t>U2021-0175</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>There are 25 data</t>
+          <t>NURUL FITRI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>There are 41 data</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NURUL FITRI</t>
+          <t>U2021-0188</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>There are 41 data</t>
+          <t>RAIHAN ABDAN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>There are 5 data</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RAIHAN ABDAN</t>
+          <t>U2022-0021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>There are 5 data</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
           <t>ELSYE</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>There are 62 data</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>INGE</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>There are 62 data</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>KENNETH LAURENTIUS</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>There are 2 data</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>KHARISMA YOGI PRATIWI</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Data doesnt exist</t>
         </is>
       </c>
     </row>

--- a/Unsuccesful.xlsx
+++ b/Unsuccesful.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,57 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>U2022-0027</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HANI MAULIDIYAH</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Data doesnt exist</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>U2022-0028</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INGE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>There are 62 data</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>U2022-0032</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>KENNETH LAURENTIUS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>There are 2 data</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Unsuccesful.xlsx
+++ b/Unsuccesful.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,160 +463,211 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>There are 25 data</t>
+          <t>There are more than 1 data</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>U2021-0003</t>
+          <t>U2021-0004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ADAM HAIKAL</t>
+          <t>ADIB M P</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>There are 6 data</t>
+          <t>Data doesnt exist</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>U2021-0004</t>
+          <t>U2021-0007</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ADIB M P</t>
+          <t>AGUS NURYADI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Data doesnt exist</t>
+          <t>There are more than 1 data</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>U2021-0007</t>
+          <t>U2021-0175</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AGUS NURYADI</t>
+          <t>NURUL FITRI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>There are 25 data</t>
+          <t>There are more than 1 data</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>U2021-0175</t>
+          <t>U2021-0188</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NURUL FITRI</t>
+          <t>RAIHAN ABDAN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>There are 41 data</t>
+          <t>There are more than 1 data</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>U2021-0188</t>
+          <t>U2022-0021</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RAIHAN ABDAN</t>
+          <t>ELSYE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>There are 5 data</t>
+          <t>There are more than 1 data</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>U2022-0021</t>
+          <t>U2022-0027</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ELSYE</t>
+          <t>HANI MAULIDIYAH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>There are 62 data</t>
+          <t>Data doesnt exist</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>U2022-0027</t>
+          <t>U2022-0028</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HANI MAULIDIYAH</t>
+          <t>INGE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Data doesnt exist</t>
+          <t>There are more than 1 data</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>U2022-0028</t>
+          <t>U2022-0032</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INGE</t>
+          <t>KENNETH LAURENTIUS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>There are 62 data</t>
+          <t>There are more than 1 data</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>U2022-0032</t>
+          <t>U2022-0033</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KENNETH LAURENTIUS</t>
+          <t>KHARISMA YOGI PRATIWI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>There are 2 data</t>
+          <t>Data doesnt exist</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>U2022-0034</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>KHUSNUL CHOTIMAH</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>There are more than 1 data</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>U2022-0036</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MEYSARA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>There are more than 1 data</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>U2022-0038</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MISBAHUDDIN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>There are more than 1 data</t>
         </is>
       </c>
     </row>
